--- a/Solarisチェックシート.xlsx
+++ b/Solarisチェックシート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">swap -sコマンドからスワップ量を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_total</t>
+    <t xml:space="preserve">swap_total</t>
   </si>
   <si>
     <t xml:space="preserve">├─swap総量</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">swap総量</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_alloc</t>
+    <t xml:space="preserve">swap_alloc</t>
   </si>
   <si>
     <t xml:space="preserve">├─swapアロケーション量</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">swapアロケーション量</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_reserve</t>
+    <t xml:space="preserve">swap_reserve</t>
   </si>
   <si>
     <t xml:space="preserve">└─swapリザーブ量</t>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t xml:space="preserve">/usr/sbin/route -v -n get default コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─MACアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACアドレス</t>
   </si>
   <si>
     <t xml:space="preserve">mdadb</t>
@@ -437,24 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">RuleAP</t>
@@ -923,7 +914,7 @@
   </sheetPr>
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1487,8 +1478,8 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1842,9 +1833,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>93</v>
       </c>
@@ -1855,30 +1844,30 @@
         <v>6</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>98</v>
       </c>
@@ -1888,7 +1877,9 @@
       <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="12" t="s">
         <v>100</v>
       </c>
@@ -1909,8 +1900,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
         <v>104</v>
       </c>
@@ -1925,10 +1916,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
         <v>107</v>
       </c>
@@ -1938,15 +1927,15 @@
       <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B28" s="9" t="s">
         <v>110</v>
       </c>
@@ -1956,44 +1945,44 @@
       <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F28" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2010,9 +1999,7 @@
       <c r="D31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="12" t="s">
         <v>121</v>
       </c>
@@ -2037,26 +2024,30 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F33" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
+    <row r="34" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B34" s="13" t="s">
         <v>128</v>
       </c>
@@ -2072,9 +2063,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>131</v>
       </c>
@@ -2084,30 +2073,30 @@
       <c r="D35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
@@ -2125,24 +2114,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2227,10 +2199,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="9"/>
@@ -2248,10 +2220,10 @@
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="9"/>
@@ -2260,13 +2232,13 @@
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2280,13 +2252,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,43 +2270,43 @@
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2342,13 +2314,13 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -2356,13 +2328,13 @@
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2370,19 +2342,19 @@
     <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2366,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2402,13 +2374,13 @@
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2416,13 +2388,13 @@
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2436,7 +2408,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2444,13 +2416,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2464,7 +2436,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2475,10 +2447,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2486,13 +2458,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2500,13 +2472,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2514,13 +2486,13 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2531,10 +2503,10 @@
         <v>87</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2542,13 +2514,13 @@
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
       <c r="B26" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
